--- a/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
+++ b/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\company settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85959A59-0670-47D4-907B-5D013CF67151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F2F483-D0EB-4381-BF7C-6DBE5571BC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>SL. No</t>
   </si>
@@ -333,6 +333,35 @@
   </si>
   <si>
     <t xml:space="preserve">It get displayed, Suppliers can issue PEPPOL invoices to customers not on ZM. </t>
+  </si>
+  <si>
+    <t>Click on the Company settings-&gt;Invoicing(new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By default add an options to select the preset date for invoices : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Today" and "Order delivery date"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                             It should have show Default invoice date : Today and Order delivery date</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -412,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -436,6 +465,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -718,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,8 +1000,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:8" s="8" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -979,19 +1011,15 @@
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1008,13 +1036,13 @@
         <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1025,19 +1053,19 @@
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1051,12 +1079,35 @@
         <v>34</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
+++ b/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\company settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F2F483-D0EB-4381-BF7C-6DBE5571BC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE3AAAA-3FE8-49AF-BDBC-095B638BBE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>SL. No</t>
   </si>
@@ -362,6 +362,9 @@
       </rPr>
       <t xml:space="preserve">                                                             It should have show Default invoice date : Today and Order delivery date</t>
     </r>
+  </si>
+  <si>
+    <t>It gets displayed as expected</t>
   </si>
 </sst>
 </file>
@@ -752,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,8 +1019,12 @@
       <c r="E11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">

--- a/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
+++ b/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\company settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE3AAAA-3FE8-49AF-BDBC-095B638BBE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5188C469-63E7-46B3-B54B-910A943C2E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>SL. No</t>
   </si>
@@ -123,15 +123,6 @@
     <t>It gets displayed as details</t>
   </si>
   <si>
-    <t>By default its showing Company name and Etc and we can edit and save settings</t>
-  </si>
-  <si>
-    <t>Gets displayed the details</t>
-  </si>
-  <si>
-    <t>Fill the requried field and cick Save settings</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">It gets displayed </t>
     </r>
@@ -307,9 +298,6 @@
     <t>It displayed XML file code details</t>
   </si>
   <si>
-    <t xml:space="preserve">It should have invoice details page </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">It gets displayed </t>
     </r>
@@ -329,12 +317,6 @@
     <t>Click on the Company settings-&gt;Invoicing</t>
   </si>
   <si>
-    <t>It should have Suppliers can issue PEPPOL invoices to customers not on ZM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It get displayed, Suppliers can issue PEPPOL invoices to customers not on ZM. </t>
-  </si>
-  <si>
     <t>Click on the Company settings-&gt;Invoicing(new)</t>
   </si>
   <si>
@@ -365,6 +347,41 @@
   </si>
   <si>
     <t>It gets displayed as expected</t>
+  </si>
+  <si>
+    <t>By default its showing Company name and Etc and we can edit and save settings                                                                                             *Fill the requried field and cick Save settings</t>
+  </si>
+  <si>
+    <t>Currently we do not have the “GST/tax registration number” field for suppliers, only buyer companies</t>
+  </si>
+  <si>
+    <r>
+      <t>Click on '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Details'-&gt;GST/Tax Reg.no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
+  </si>
+  <si>
+    <t>It should have invoice details page                                                                *It should have Suppliers can issue PEPPOL invoices to customers not on ZM</t>
   </si>
 </sst>
 </file>
@@ -417,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -440,11 +457,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -471,6 +497,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -755,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +862,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>15</v>
@@ -853,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>
@@ -875,20 +907,14 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -902,10 +928,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -922,13 +948,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -945,19 +971,19 @@
         <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -968,13 +994,13 @@
         <v>9</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>13</v>
@@ -991,17 +1017,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
@@ -1014,13 +1036,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>13</v>
@@ -1037,13 +1059,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1060,13 +1082,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1083,13 +1105,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1106,13 +1128,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>

--- a/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
+++ b/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\company settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5188C469-63E7-46B3-B54B-910A943C2E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930FF351-846E-4358-B9E4-5C2CF07CA849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>SL. No</t>
   </si>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,6 +913,12 @@
       <c r="E5" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="F5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1022,8 +1028,12 @@
       <c r="E10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="F10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">

--- a/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
+++ b/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\company settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930FF351-846E-4358-B9E4-5C2CF07CA849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF949CE4-1BC2-4E88-8AF3-E80CAAD3B136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>SL. No</t>
   </si>
@@ -382,6 +382,79 @@
   </si>
   <si>
     <t>It should have invoice details page                                                                *It should have Suppliers can issue PEPPOL invoices to customers not on ZM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should show </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Integrate with other online services , Accounting as Quickbooks Online and Xero'</t>
+    </r>
+  </si>
+  <si>
+    <t>Company settings-&gt;Integration-&gt;Quickbooks</t>
+  </si>
+  <si>
+    <r>
+      <t>It shows</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Integration settings as Outlet, Export as Select Outlet dropdown, Category, Tax code Tracking class as Please select dropdown and Cancel and Save"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the Quickbooks updated OK</t>
+  </si>
+  <si>
+    <t>Company settings-&gt;Integration-&gt;Xero</t>
+  </si>
+  <si>
+    <r>
+      <t>It shows</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Outlet, Export as Select Customer dropdown, Category as Please select dropdown and Cancel and Save"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It gets displayed the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Xero  OK</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -785,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1168,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>30</v>
@@ -1104,8 +1177,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:8" s="8" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1115,38 +1188,78 @@
         <v>9</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G17" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
+++ b/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\company settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF949CE4-1BC2-4E88-8AF3-E80CAAD3B136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49A6682-AF16-4DAE-B3A2-196AFB38D418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>SL. No</t>
   </si>
@@ -455,6 +455,79 @@
       </rPr>
       <t xml:space="preserve"> Xero  OK</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Address &gt; Australia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>formate</t>
+    </r>
+  </si>
+  <si>
+    <t>Line 1: Street name and number (and building name, if available)
+Line 2: Suburb or City + 2 or 3-letter State and 4-digit post code, for example: Southbank, VIC 1234</t>
+  </si>
+  <si>
+    <r>
+      <t>Click on '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Details'-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company Registration Number</t>
+    </r>
+  </si>
+  <si>
+    <t>It should accept in the alphabet value, numberic number and special character and Use this field for UEN (singapore)/ABN (Australia)</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>By default GMT +08:00 Singapore and set as Australian time</t>
   </si>
 </sst>
 </file>
@@ -507,7 +580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -539,11 +612,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -555,27 +639,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -858,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,7 +1034,7 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -980,20 +1057,20 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1003,20 +1080,15 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1026,20 +1098,15 @@
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1049,89 +1116,84 @@
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1141,20 +1203,20 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1164,60 +1226,66 @@
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1227,20 +1295,20 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
+      <c r="D16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1250,16 +1318,79 @@
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G20" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
+++ b/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\company settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49A6682-AF16-4DAE-B3A2-196AFB38D418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60FFA84-8617-4419-ACBE-000D1C61D332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
   <si>
     <t>SL. No</t>
   </si>
@@ -627,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -653,6 +653,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -937,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1089,12 @@
       <c r="E6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1104,7 +1112,12 @@
       <c r="E7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1122,7 +1135,12 @@
       <c r="E8" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1327,6 +1345,9 @@
       <c r="F17" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="G17" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1346,6 +1367,9 @@
       </c>
       <c r="F18" s="4" t="s">
         <v>51</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">

--- a/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
+++ b/Testcases_supplier/company settings/Manual testcases/Company settings testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\company settings\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60FFA84-8617-4419-ACBE-000D1C61D332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C574C1EE-A7C8-4272-ACAC-48A7BF6D4D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="59">
   <si>
     <t>SL. No</t>
   </si>
@@ -244,32 +244,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Once click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Xero Connect button'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it displayed to XERO login page.                                                                                                 1.Enter the Email and password and log in                                 2.Enter the 6 digit code found in your authentication app        3.If you enter the 6 digit code and confirm  it displayed the Xero home page</t>
-    </r>
-  </si>
-  <si>
     <t>Click on the Company settings-&gt;Subscription</t>
   </si>
   <si>
@@ -296,22 +270,6 @@
   </si>
   <si>
     <t>It displayed XML file code details</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It gets displayed </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Issue invoices online using Zeemart, Invoice numbering and PEPPOL e-invoicing (InvoiceNow)</t>
-    </r>
   </si>
   <si>
     <t>Click on the Company settings-&gt;Invoicing</t>
@@ -528,6 +486,51 @@
   </si>
   <si>
     <t>By default GMT +08:00 Singapore and set as Australian time</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Issue invoices online using Zeemart, Invoice numbering and PEPPOL e-invoicing (InvoiceNow).</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed as expected.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Xero Connect button'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it displayed to XERO login page.                                                                                                 1.Enter the Email and password and log in                                 2.Enter the 6 digit code found in your authentication app        3.If you enter the 6 digit code and confirm  it displayed the Xero home page.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -653,9 +656,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,13 +1061,13 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1084,13 +1084,13 @@
         <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -1107,13 +1107,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -1130,13 +1130,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1156,7 +1156,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>19</v>
@@ -1222,13 +1222,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -1245,13 +1245,13 @@
         <v>9</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1268,13 +1268,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>13</v>
@@ -1317,10 +1317,10 @@
         <v>27</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -1337,15 +1337,15 @@
         <v>9</v>
       </c>
       <c r="D17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1360,15 +1360,15 @@
         <v>9</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1383,13 +1383,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -1406,13 +1406,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
